--- a/raw_data/20200818_saline/20200818_Sensor2_Test_79.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_79.xlsx
@@ -1,780 +1,1196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E45213-044D-45F5-9718-E0C2A7BC1E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>70574.234829</v>
+        <v>70574.234828999994</v>
       </c>
       <c r="B2" s="1">
-        <v>19.603954</v>
+        <v>19.603954000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.380000</v>
+        <v>1248.3800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-300.207000</v>
+        <v>-300.20699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>70584.603199</v>
+        <v>70584.603199000005</v>
       </c>
       <c r="G2" s="1">
-        <v>19.606834</v>
+        <v>19.606833999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.590000</v>
+        <v>1272.5899999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-260.630000</v>
+        <v>-260.63</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>70594.738487</v>
+        <v>70594.738486999995</v>
       </c>
       <c r="L2" s="1">
-        <v>19.609650</v>
+        <v>19.609649999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.200000</v>
+        <v>1307.2</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.055000</v>
+        <v>-201.05500000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>70605.236804</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.612566</v>
+        <v>19.612566000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.580000</v>
+        <v>1319.58</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.899000</v>
+        <v>-183.899</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>70615.847687</v>
+        <v>70615.847687000001</v>
       </c>
       <c r="V2" s="1">
         <v>19.615513</v>
       </c>
       <c r="W2" s="1">
-        <v>1333.170000</v>
+        <v>1333.17</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.474000</v>
+        <v>-171.47399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>70626.251306</v>
+        <v>70626.251306000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.618403</v>
+        <v>19.618403000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1351.180000</v>
+        <v>1351.18</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.892000</v>
+        <v>-169.892</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>70636.817582</v>
+        <v>70636.817582000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.621338</v>
+        <v>19.621338000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1364.660000</v>
+        <v>1364.66</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.810000</v>
+        <v>-179.81</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>70647.275201</v>
+        <v>70647.275200999997</v>
       </c>
       <c r="AK2" s="1">
         <v>19.624243</v>
       </c>
       <c r="AL2" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.689000</v>
+        <v>-209.68899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>70657.850908</v>
+        <v>70657.850907999993</v>
       </c>
       <c r="AP2" s="1">
         <v>19.627181</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1408.620000</v>
+        <v>1408.62</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.200000</v>
+        <v>-253.2</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>70669.181007</v>
+        <v>70669.181007000007</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.630328</v>
+        <v>19.630327999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1433.810000</v>
+        <v>1433.81</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.606000</v>
+        <v>-312.60599999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>70680.274561</v>
+        <v>70680.274560999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.633410</v>
+        <v>19.633410000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1453.560000</v>
+        <v>1453.56</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.213000</v>
+        <v>-364.21300000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>70690.923139</v>
+        <v>70690.923139000006</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.636368</v>
+        <v>19.636368000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1540.280000</v>
+        <v>1540.28</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.787000</v>
+        <v>-609.78700000000003</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>70701.961108</v>
+        <v>70701.961108000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.639434</v>
+        <v>19.639434000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1696.690000</v>
+        <v>1696.69</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1048.990000</v>
+        <v>-1048.99</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>70713.537733</v>
+        <v>70713.537733000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.642649</v>
+        <v>19.642648999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.820000</v>
+        <v>1993.82</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1806.580000</v>
+        <v>-1806.58</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>70724.611912</v>
+        <v>70724.611911999993</v>
       </c>
       <c r="BT2" s="1">
         <v>19.645726</v>
       </c>
       <c r="BU2" s="1">
-        <v>2384.400000</v>
+        <v>2384.4</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2679.360000</v>
+        <v>-2679.36</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>70735.310269</v>
+        <v>70735.310268999994</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.648697</v>
+        <v>19.648696999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2864.580000</v>
+        <v>2864.58</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3625.790000</v>
+        <v>-3625.79</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>70745.955258</v>
+        <v>70745.955258000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.651654</v>
+        <v>19.651654000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4267.230000</v>
+        <v>4267.2299999999996</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5890.410000</v>
+        <v>-5890.41</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>70574.586990</v>
+        <v>70574.586989999996</v>
       </c>
       <c r="B3" s="1">
-        <v>19.604052</v>
+        <v>19.604051999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.190000</v>
+        <v>1248.19</v>
       </c>
       <c r="D3" s="1">
-        <v>-300.358000</v>
+        <v>-300.358</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>70585.023680</v>
+        <v>70585.023679999998</v>
       </c>
       <c r="G3" s="1">
-        <v>19.606951</v>
+        <v>19.606950999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.460000</v>
+        <v>1272.46</v>
       </c>
       <c r="I3" s="1">
-        <v>-261.281000</v>
+        <v>-261.28100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>70595.163522</v>
+        <v>70595.163522000003</v>
       </c>
       <c r="L3" s="1">
-        <v>19.609768</v>
+        <v>19.609767999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.630000</v>
+        <v>1307.6300000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.734000</v>
+        <v>-200.73400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>70605.653907</v>
@@ -783,1176 +1199,1176 @@
         <v>19.612682</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.450000</v>
+        <v>1319.45</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.859000</v>
+        <v>-183.85900000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>70616.195383</v>
+        <v>70616.195382999998</v>
       </c>
       <c r="V3" s="1">
-        <v>19.615610</v>
+        <v>19.61561</v>
       </c>
       <c r="W3" s="1">
-        <v>1333.170000</v>
+        <v>1333.17</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.065000</v>
+        <v>-171.065</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>70626.621816</v>
+        <v>70626.621815999999</v>
       </c>
       <c r="AA3" s="1">
         <v>19.618506</v>
       </c>
       <c r="AB3" s="1">
-        <v>1351.270000</v>
+        <v>1351.27</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.770000</v>
+        <v>-169.77</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>70637.202455</v>
+        <v>70637.202455000006</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.621445</v>
+        <v>19.621445000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1364.740000</v>
+        <v>1364.74</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.699000</v>
+        <v>-179.69900000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>70647.664060</v>
+        <v>70647.664059999996</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.624351</v>
+        <v>19.624351000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1386.220000</v>
+        <v>1386.22</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.674000</v>
+        <v>-209.67400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>70658.600610</v>
+        <v>70658.600609999994</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.627389</v>
+        <v>19.627389000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.179000</v>
+        <v>-253.179</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>70669.582271</v>
+        <v>70669.582271000007</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.630440</v>
+        <v>19.63044</v>
       </c>
       <c r="AV3" s="1">
-        <v>1433.820000</v>
+        <v>1433.82</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.637000</v>
+        <v>-312.637</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>70680.674800</v>
+        <v>70680.674799999993</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.633521</v>
+        <v>19.633521000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1453.580000</v>
+        <v>1453.58</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.252000</v>
+        <v>-364.25200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>70691.288690</v>
+        <v>70691.288690000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.636469</v>
+        <v>19.636469000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1540.220000</v>
+        <v>1540.22</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.765000</v>
+        <v>-609.76499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>70702.350469</v>
+        <v>70702.350468999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.639542</v>
+        <v>19.639541999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1696.540000</v>
+        <v>1696.54</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1048.980000</v>
+        <v>-1048.98</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>70714.272340</v>
+        <v>70714.272339999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.642853</v>
+        <v>19.642852999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.660000</v>
+        <v>1993.66</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1806.660000</v>
+        <v>-1806.66</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>70724.787991</v>
+        <v>70724.787991000005</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.645774</v>
+        <v>19.645773999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2384.590000</v>
+        <v>2384.59</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2678.860000</v>
+        <v>-2678.86</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>70735.475288</v>
+        <v>70735.475288000001</v>
       </c>
       <c r="BY3" s="1">
         <v>19.648743</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2865.070000</v>
+        <v>2865.07</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3626.020000</v>
+        <v>-3626.02</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>70746.547979</v>
+        <v>70746.547978999995</v>
       </c>
       <c r="CD3" s="1">
         <v>19.651819</v>
       </c>
       <c r="CE3" s="1">
-        <v>4262.800000</v>
+        <v>4262.8</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5907.850000</v>
+        <v>-5907.85</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>70575.016030</v>
+        <v>70575.016029999999</v>
       </c>
       <c r="B4" s="1">
-        <v>19.604171</v>
+        <v>19.604171000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.040000</v>
+        <v>1248.04</v>
       </c>
       <c r="D4" s="1">
-        <v>-300.321000</v>
+        <v>-300.32100000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>70585.331326</v>
       </c>
       <c r="G4" s="1">
-        <v>19.607036</v>
+        <v>19.607036000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1271.940000</v>
+        <v>1271.94</v>
       </c>
       <c r="I4" s="1">
-        <v>-260.329000</v>
+        <v>-260.32900000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>70595.501297</v>
+        <v>70595.501296999995</v>
       </c>
       <c r="L4" s="1">
-        <v>19.609861</v>
+        <v>19.609860999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.360000</v>
+        <v>1307.3599999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.105000</v>
+        <v>-201.10499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>70606.001139</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.612778</v>
+        <v>19.612777999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.460000</v>
+        <v>1319.46</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.772000</v>
+        <v>-183.77199999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>70616.536636</v>
+        <v>70616.536636000004</v>
       </c>
       <c r="V4" s="1">
-        <v>19.615705</v>
+        <v>19.615704999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1333.330000</v>
+        <v>1333.33</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.307000</v>
+        <v>-171.30699999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>70626.970999</v>
+        <v>70626.970998999997</v>
       </c>
       <c r="AA4" s="1">
         <v>19.618603</v>
       </c>
       <c r="AB4" s="1">
-        <v>1351.270000</v>
+        <v>1351.27</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.860000</v>
+        <v>-169.86</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>70637.887418</v>
+        <v>70637.887417999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.621635</v>
+        <v>19.621635000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1364.720000</v>
+        <v>1364.72</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.797000</v>
+        <v>-179.797</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>70648.360443</v>
+        <v>70648.360442999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.624545</v>
+        <v>19.624545000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.635000</v>
+        <v>-209.63499999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>70658.958504</v>
+        <v>70658.958503999995</v>
       </c>
       <c r="AP4" s="1">
         <v>19.627488</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.198000</v>
+        <v>-253.19800000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>70669.943887</v>
+        <v>70669.943887000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.630540</v>
+        <v>19.63054</v>
       </c>
       <c r="AV4" s="1">
-        <v>1433.850000</v>
+        <v>1433.85</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.589000</v>
+        <v>-312.589</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>70681.035393</v>
+        <v>70681.035392999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.633621</v>
+        <v>19.633621000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1453.580000</v>
+        <v>1453.58</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.191000</v>
+        <v>-364.19099999999997</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>70691.954359</v>
+        <v>70691.954358999996</v>
       </c>
       <c r="BE4" s="1">
         <v>19.636654</v>
       </c>
       <c r="BF4" s="1">
-        <v>1540.250000</v>
+        <v>1540.25</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.786000</v>
+        <v>-609.78599999999994</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>70703.031514</v>
+        <v>70703.031514000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.639731</v>
+        <v>19.639731000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1696.600000</v>
+        <v>1696.6</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1048.960000</v>
+        <v>-1048.96</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>70714.382917</v>
+        <v>70714.382916999995</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.642884</v>
+        <v>19.642883999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.530000</v>
+        <v>1993.53</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1806.830000</v>
+        <v>-1806.83</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>70725.202151</v>
+        <v>70725.202151000005</v>
       </c>
       <c r="BT4" s="1">
         <v>19.645889</v>
       </c>
       <c r="BU4" s="1">
-        <v>2384.800000</v>
+        <v>2384.8000000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2677.780000</v>
+        <v>-2677.78</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>70735.897879</v>
+        <v>70735.897878999996</v>
       </c>
       <c r="BY4" s="1">
         <v>19.648861</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2864.450000</v>
+        <v>2864.45</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3625.810000</v>
+        <v>-3625.81</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>70747.087657</v>
+        <v>70747.087656999996</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.651969</v>
+        <v>19.651969000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4277.190000</v>
+        <v>4277.1899999999996</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5892.940000</v>
+        <v>-5892.94</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>70575.280891</v>
+        <v>70575.280891000002</v>
       </c>
       <c r="B5" s="1">
-        <v>19.604245</v>
+        <v>19.604244999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.120000</v>
+        <v>1248.1199999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-300.266000</v>
+        <v>-300.26600000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>70585.673566</v>
+        <v>70585.673565999998</v>
       </c>
       <c r="G5" s="1">
         <v>19.607132</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.010000</v>
+        <v>1272.01</v>
       </c>
       <c r="I5" s="1">
-        <v>-260.051000</v>
+        <v>-260.05099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>70595.847040</v>
+        <v>70595.847039999993</v>
       </c>
       <c r="L5" s="1">
-        <v>19.609958</v>
+        <v>19.609957999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.680000</v>
+        <v>1307.68</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.034000</v>
+        <v>-201.03399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>70606.351779</v>
+        <v>70606.351779000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.612875</v>
+        <v>19.612874999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.580000</v>
+        <v>1319.58</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.833000</v>
+        <v>-183.833</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>70617.223094</v>
+        <v>70617.223094000001</v>
       </c>
       <c r="V5" s="1">
-        <v>19.615895</v>
+        <v>19.615894999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>1333.270000</v>
+        <v>1333.27</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.284000</v>
+        <v>-171.28399999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>70627.669872</v>
+        <v>70627.669871999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.618797</v>
+        <v>19.618797000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1351.120000</v>
+        <v>1351.12</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.900000</v>
+        <v>-169.9</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>70638.227673</v>
+        <v>70638.227673000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.621730</v>
+        <v>19.621729999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1364.800000</v>
+        <v>1364.8</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.740000</v>
+        <v>-179.74</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>70648.710124</v>
+        <v>70648.710124000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.624642</v>
+        <v>19.624642000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1386.250000</v>
+        <v>1386.25</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.656000</v>
+        <v>-209.65600000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>70659.319580</v>
+        <v>70659.319579999996</v>
       </c>
       <c r="AP5" s="1">
         <v>19.627589</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.206000</v>
+        <v>-253.20599999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>70670.627839</v>
+        <v>70670.627838999993</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.630730</v>
+        <v>19.63073</v>
       </c>
       <c r="AV5" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.613000</v>
+        <v>-312.613</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>70681.703503</v>
+        <v>70681.703502999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.633807</v>
+        <v>19.633807000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1453.550000</v>
+        <v>1453.55</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.167000</v>
+        <v>-364.16699999999997</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>70692.398241</v>
+        <v>70692.398241000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.636777</v>
+        <v>19.636776999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1540.220000</v>
+        <v>1540.22</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.767000</v>
+        <v>-609.76700000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>70703.504658</v>
+        <v>70703.504658000005</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.639862</v>
+        <v>19.639862000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1696.590000</v>
+        <v>1696.59</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1049.010000</v>
+        <v>-1049.01</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>70714.782691</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.642995</v>
+        <v>19.642994999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.670000</v>
+        <v>1993.67</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1806.910000</v>
+        <v>-1806.91</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>70725.627717</v>
+        <v>70725.627716999996</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.646008</v>
+        <v>19.646007999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>2383.880000</v>
+        <v>2383.88</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2676.980000</v>
+        <v>-2676.98</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>70736.317991</v>
+        <v>70736.317991000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.648977</v>
+        <v>19.648976999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2864.930000</v>
+        <v>2864.93</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3625.570000</v>
+        <v>-3625.57</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>70747.628296</v>
+        <v>70747.628295999995</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.652119</v>
+        <v>19.652118999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4256.220000</v>
+        <v>4256.22</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5899.810000</v>
+        <v>-5899.81</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>70575.618203</v>
+        <v>70575.618203000005</v>
       </c>
       <c r="B6" s="1">
-        <v>19.604338</v>
+        <v>19.604337999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.010000</v>
+        <v>1248.01</v>
       </c>
       <c r="D6" s="1">
-        <v>-300.531000</v>
+        <v>-300.53100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>70586.017325</v>
+        <v>70586.017324999993</v>
       </c>
       <c r="G6" s="1">
-        <v>19.607227</v>
+        <v>19.607227000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1271.290000</v>
+        <v>1271.29</v>
       </c>
       <c r="I6" s="1">
-        <v>-260.436000</v>
+        <v>-260.43599999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>70596.191269</v>
+        <v>70596.191269000003</v>
       </c>
       <c r="L6" s="1">
-        <v>19.610053</v>
+        <v>19.610053000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.360000</v>
+        <v>1307.3599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.133000</v>
+        <v>-201.13300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>70607.047183</v>
+        <v>70607.047183000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.613069</v>
+        <v>19.613068999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.670000</v>
+        <v>1319.67</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.821000</v>
+        <v>-183.821</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>70617.567316</v>
+        <v>70617.567316000001</v>
       </c>
       <c r="V6" s="1">
-        <v>19.615991</v>
+        <v>19.615991000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1333.080000</v>
+        <v>1333.08</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.254000</v>
+        <v>-171.25399999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>70628.016039</v>
+        <v>70628.016038999995</v>
       </c>
       <c r="AA6" s="1">
         <v>19.618893</v>
       </c>
       <c r="AB6" s="1">
-        <v>1351.430000</v>
+        <v>1351.43</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.795000</v>
+        <v>-169.79499999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>70638.573881</v>
+        <v>70638.573881000004</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.621826</v>
+        <v>19.621825999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1364.660000</v>
+        <v>1364.66</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.047000</v>
+        <v>-180.047</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>70649.055375</v>
+        <v>70649.055374999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.624738</v>
+        <v>19.624738000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1386.240000</v>
+        <v>1386.24</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.677000</v>
+        <v>-209.67699999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>70659.992620</v>
+        <v>70659.992620000005</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.627776</v>
+        <v>19.627776000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.203000</v>
+        <v>-253.203</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>70671.038029</v>
+        <v>70671.038029000003</v>
       </c>
       <c r="AU6" s="1">
         <v>19.630844</v>
       </c>
       <c r="AV6" s="1">
-        <v>1433.840000</v>
+        <v>1433.84</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.635000</v>
+        <v>-312.63499999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>70682.110720</v>
+        <v>70682.110719999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.633920</v>
+        <v>19.63392</v>
       </c>
       <c r="BA6" s="1">
-        <v>1453.580000</v>
+        <v>1453.58</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.192000</v>
+        <v>-364.19200000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>70692.764043</v>
+        <v>70692.764043000003</v>
       </c>
       <c r="BE6" s="1">
         <v>19.636879</v>
       </c>
       <c r="BF6" s="1">
-        <v>1540.210000</v>
+        <v>1540.21</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.791000</v>
+        <v>-609.79100000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>70703.881649</v>
+        <v>70703.881649000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.639967</v>
+        <v>19.639966999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1696.570000</v>
+        <v>1696.57</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1048.970000</v>
+        <v>-1048.97</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>70715.202802</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.643112</v>
+        <v>19.643111999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.500000</v>
+        <v>1993.5</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1806.850000</v>
+        <v>-1806.85</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>70726.048325</v>
+        <v>70726.048324999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.646125</v>
+        <v>19.646125000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2383.530000</v>
+        <v>2383.5300000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2676.070000</v>
+        <v>-2676.07</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>70736.757465</v>
+        <v>70736.757465000002</v>
       </c>
       <c r="BY6" s="1">
         <v>19.649099</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2864.150000</v>
+        <v>2864.15</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3625.720000</v>
+        <v>-3625.72</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>70748.168443</v>
+        <v>70748.168443000002</v>
       </c>
       <c r="CD6" s="1">
         <v>19.652269</v>
       </c>
       <c r="CE6" s="1">
-        <v>4279.630000</v>
+        <v>4279.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5901.240000</v>
+        <v>-5901.24</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>70575.961404</v>
+        <v>70575.961404000001</v>
       </c>
       <c r="B7" s="1">
-        <v>19.604434</v>
+        <v>19.604434000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.260000</v>
+        <v>1248.26</v>
       </c>
       <c r="D7" s="1">
-        <v>-300.361000</v>
+        <v>-300.36099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>70586.706880</v>
+        <v>70586.706879999998</v>
       </c>
       <c r="G7" s="1">
         <v>19.607419</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.640000</v>
+        <v>1272.6400000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-260.992000</v>
+        <v>-260.99200000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>70596.881701</v>
+        <v>70596.881701000006</v>
       </c>
       <c r="L7" s="1">
-        <v>19.610245</v>
+        <v>19.610244999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.650000</v>
+        <v>1307.6500000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.928000</v>
+        <v>-200.928</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>70607.395361</v>
+        <v>70607.395361000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.613165</v>
+        <v>19.613164999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.520000</v>
+        <v>1319.52</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.884000</v>
+        <v>-183.88399999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>70617.912068</v>
+        <v>70617.912068000005</v>
       </c>
       <c r="V7" s="1">
         <v>19.616087</v>
       </c>
       <c r="W7" s="1">
-        <v>1333.330000</v>
+        <v>1333.33</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.224000</v>
+        <v>-171.22399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>70628.364757</v>
+        <v>70628.364757000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.618990</v>
+        <v>19.61899</v>
       </c>
       <c r="AB7" s="1">
-        <v>1351.200000</v>
+        <v>1351.2</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.826000</v>
+        <v>-169.82599999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>70639.235063</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.622010</v>
+        <v>19.62201</v>
       </c>
       <c r="AG7" s="1">
-        <v>1364.720000</v>
+        <v>1364.72</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.820000</v>
+        <v>-179.82</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>70649.708073</v>
+        <v>70649.708073000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.624919</v>
+        <v>19.624918999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1386.220000</v>
+        <v>1386.22</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.664000</v>
+        <v>-209.66399999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>70660.435083</v>
+        <v>70660.435083000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.627899</v>
+        <v>19.627898999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1408.630000</v>
+        <v>1408.63</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.176000</v>
+        <v>-253.17599999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>70671.424445</v>
+        <v>70671.424444999997</v>
       </c>
       <c r="AU7" s="1">
         <v>19.630951</v>
       </c>
       <c r="AV7" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.585000</v>
+        <v>-312.58499999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>70682.495132</v>
+        <v>70682.495131999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.634026</v>
+        <v>19.634025999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1453.570000</v>
+        <v>1453.57</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.192000</v>
+        <v>-364.19200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>70693.122928</v>
+        <v>70693.122927999997</v>
       </c>
       <c r="BE7" s="1">
         <v>19.636979</v>
       </c>
       <c r="BF7" s="1">
-        <v>1540.250000</v>
+        <v>1540.25</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.773000</v>
+        <v>-609.77300000000002</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>70704.297793</v>
+        <v>70704.297793000005</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.640083</v>
+        <v>19.640083000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1696.500000</v>
+        <v>1696.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1049.020000</v>
+        <v>-1049.02</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>70715.616962</v>
@@ -1961,135 +2377,135 @@
         <v>19.643227</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.430000</v>
+        <v>1993.43</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1806.790000</v>
+        <v>-1806.79</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>70726.458555</v>
+        <v>70726.458555000005</v>
       </c>
       <c r="BT7" s="1">
         <v>19.646238</v>
       </c>
       <c r="BU7" s="1">
-        <v>2382.380000</v>
+        <v>2382.38</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2675.680000</v>
+        <v>-2675.68</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>70737.189006</v>
+        <v>70737.189006000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.649219</v>
+        <v>19.649218999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2865.140000</v>
+        <v>2865.14</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3625.360000</v>
+        <v>-3625.36</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>70748.709286</v>
+        <v>70748.709285999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>19.652419</v>
+        <v>19.652418999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>4262.150000</v>
+        <v>4262.1499999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5892.690000</v>
+        <v>-5892.69</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>70576.644395</v>
+        <v>70576.644394999996</v>
       </c>
       <c r="B8" s="1">
         <v>19.604623</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.810000</v>
+        <v>1247.81</v>
       </c>
       <c r="D8" s="1">
-        <v>-300.368000</v>
+        <v>-300.36799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>70587.053932</v>
+        <v>70587.053931999995</v>
       </c>
       <c r="G8" s="1">
-        <v>19.607515</v>
+        <v>19.607514999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.440000</v>
+        <v>1272.44</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.630000</v>
+        <v>-261.63</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>70597.258133</v>
+        <v>70597.258132999996</v>
       </c>
       <c r="L8" s="1">
-        <v>19.610349</v>
+        <v>19.610348999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.994000</v>
+        <v>-200.994</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>70607.744049</v>
+        <v>70607.744049000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.613262</v>
+        <v>19.613261999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.520000</v>
+        <v>1319.52</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.877000</v>
+        <v>-183.87700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>70618.563780</v>
+        <v>70618.563779999997</v>
       </c>
       <c r="V8" s="1">
-        <v>19.616268</v>
+        <v>19.616268000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1333.160000</v>
+        <v>1333.16</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.308000</v>
+        <v>-171.30799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>70629.021429</v>
@@ -2098,330 +2514,330 @@
         <v>19.619173</v>
       </c>
       <c r="AB8" s="1">
-        <v>1351.220000</v>
+        <v>1351.22</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.816000</v>
+        <v>-169.816</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>70639.606088</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.622113</v>
+        <v>19.622112999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1364.910000</v>
+        <v>1364.91</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.889000</v>
+        <v>-179.88900000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>70650.102393</v>
+        <v>70650.102392999994</v>
       </c>
       <c r="AK8" s="1">
         <v>19.625028</v>
       </c>
       <c r="AL8" s="1">
-        <v>1386.240000</v>
+        <v>1386.24</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.662000</v>
+        <v>-209.66200000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>70660.796139</v>
+        <v>70660.796138999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.627999</v>
+        <v>19.627998999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1408.600000</v>
+        <v>1408.6</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.163000</v>
+        <v>-253.16300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>70671.786493</v>
+        <v>70671.786493000007</v>
       </c>
       <c r="AU8" s="1">
         <v>19.631052</v>
       </c>
       <c r="AV8" s="1">
-        <v>1433.840000</v>
+        <v>1433.84</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.615000</v>
+        <v>-312.61500000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>70682.855742</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.634127</v>
+        <v>19.634126999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1453.580000</v>
+        <v>1453.58</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.155000</v>
+        <v>-364.15499999999997</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>70693.545983</v>
+        <v>70693.545983000004</v>
       </c>
       <c r="BE8" s="1">
         <v>19.637096</v>
       </c>
       <c r="BF8" s="1">
-        <v>1540.240000</v>
+        <v>1540.24</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.780000</v>
+        <v>-609.78</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>70704.661825</v>
+        <v>70704.661825000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.640184</v>
+        <v>19.640184000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1696.550000</v>
+        <v>1696.55</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1048.940000</v>
+        <v>-1048.94</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>70716.024706</v>
+        <v>70716.024705999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.643340</v>
+        <v>19.643339999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.510000</v>
+        <v>1993.51</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1806.880000</v>
+        <v>-1806.88</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>70726.872676</v>
+        <v>70726.872675999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.646354</v>
+        <v>19.646353999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2381.310000</v>
+        <v>2381.31</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2675.750000</v>
+        <v>-2675.75</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>70737.611557</v>
+        <v>70737.611556999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.649337</v>
+        <v>19.649336999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2864.140000</v>
+        <v>2864.14</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3625.300000</v>
+        <v>-3625.3</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>70749.249225</v>
+        <v>70749.249225000007</v>
       </c>
       <c r="CD8" s="1">
         <v>19.652569</v>
       </c>
       <c r="CE8" s="1">
-        <v>4269.520000</v>
+        <v>4269.5200000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5909.090000</v>
+        <v>-5909.09</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>70576.989114</v>
+        <v>70576.989113999996</v>
       </c>
       <c r="B9" s="1">
-        <v>19.604719</v>
+        <v>19.604718999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.350000</v>
+        <v>1248.3499999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-300.337000</v>
+        <v>-300.33699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>70587.404141</v>
+        <v>70587.404141000006</v>
       </c>
       <c r="G9" s="1">
         <v>19.607612</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.660000</v>
+        <v>1272.6600000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-259.876000</v>
+        <v>-259.87599999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>70597.870686</v>
+        <v>70597.870685999995</v>
       </c>
       <c r="L9" s="1">
-        <v>19.610520</v>
+        <v>19.610520000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.450000</v>
+        <v>1307.45</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.694000</v>
+        <v>-200.69399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>70608.404225</v>
+        <v>70608.404225000006</v>
       </c>
       <c r="Q9" s="1">
         <v>19.613446</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.500000</v>
+        <v>1319.5</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.780000</v>
+        <v>-183.78</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>70618.941731</v>
+        <v>70618.941730999999</v>
       </c>
       <c r="V9" s="1">
-        <v>19.616373</v>
+        <v>19.616372999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1333.330000</v>
+        <v>1333.33</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.127000</v>
+        <v>-171.12700000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>70629.409333</v>
+        <v>70629.409333000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.619280</v>
+        <v>19.61928</v>
       </c>
       <c r="AB9" s="1">
-        <v>1351.300000</v>
+        <v>1351.3</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.820000</v>
+        <v>-169.82</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>70639.946806</v>
+        <v>70639.946806000007</v>
       </c>
       <c r="AF9" s="1">
         <v>19.622207</v>
       </c>
       <c r="AG9" s="1">
-        <v>1364.620000</v>
+        <v>1364.62</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.626000</v>
+        <v>-179.626</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>70650.452568</v>
+        <v>70650.452567999993</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.625126</v>
+        <v>19.625126000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1386.260000</v>
+        <v>1386.26</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.678000</v>
+        <v>-209.678</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>70661.156732</v>
+        <v>70661.156732000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.628099</v>
+        <v>19.628098999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1408.600000</v>
+        <v>1408.6</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.208000</v>
+        <v>-253.208</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>70672.220524</v>
+        <v>70672.220524000004</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.631172</v>
+        <v>19.631171999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.595000</v>
+        <v>-312.59500000000003</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>70683.272845</v>
@@ -2430,877 +2846,877 @@
         <v>19.634242</v>
       </c>
       <c r="BA9" s="1">
-        <v>1453.580000</v>
+        <v>1453.58</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.209000</v>
+        <v>-364.209</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>70693.846568</v>
+        <v>70693.846567999994</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.637180</v>
+        <v>19.637180000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1540.200000</v>
+        <v>1540.2</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.755000</v>
+        <v>-609.755</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>70705.035810</v>
+        <v>70705.035810000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.640288</v>
+        <v>19.640288000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1696.550000</v>
+        <v>1696.55</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1049.000000</v>
+        <v>-1049</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>70716.420978</v>
+        <v>70716.420977999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.643450</v>
+        <v>19.643450000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.400000</v>
+        <v>1993.4</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1806.910000</v>
+        <v>-1806.91</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>70727.287827</v>
+        <v>70727.287826999993</v>
       </c>
       <c r="BT9" s="1">
         <v>19.646469</v>
       </c>
       <c r="BU9" s="1">
-        <v>2380.520000</v>
+        <v>2380.52</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2676.460000</v>
+        <v>-2676.46</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>70738.032164</v>
+        <v>70738.032164000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.649453</v>
+        <v>19.649453000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2864.430000</v>
+        <v>2864.43</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3625.180000</v>
+        <v>-3625.18</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>70749.786854</v>
+        <v>70749.786854000005</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.652719</v>
+        <v>19.652719000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4271.780000</v>
+        <v>4271.78</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5891.360000</v>
+        <v>-5891.36</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>70577.330361</v>
       </c>
       <c r="B10" s="1">
-        <v>19.604814</v>
+        <v>19.604814000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1248.250000</v>
+        <v>1248.25</v>
       </c>
       <c r="D10" s="1">
-        <v>-300.056000</v>
+        <v>-300.05599999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>70588.063823</v>
+        <v>70588.063823000004</v>
       </c>
       <c r="G10" s="1">
         <v>19.607796</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.650000</v>
+        <v>1271.6500000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-260.446000</v>
+        <v>-260.44600000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>70598.265043</v>
+        <v>70598.265043000007</v>
       </c>
       <c r="L10" s="1">
-        <v>19.610629</v>
+        <v>19.610628999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.310000</v>
+        <v>1307.31</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.574000</v>
+        <v>-200.57400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>70608.793583</v>
+        <v>70608.793583000006</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.613554</v>
+        <v>19.613554000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.540000</v>
+        <v>1319.54</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.739000</v>
+        <v>-183.739</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>70619.287443</v>
+        <v>70619.287442999994</v>
       </c>
       <c r="V10" s="1">
-        <v>19.616469</v>
+        <v>19.616468999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1333.170000</v>
+        <v>1333.17</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.987000</v>
+        <v>-170.98699999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>70629.758981</v>
+        <v>70629.758981000006</v>
       </c>
       <c r="AA10" s="1">
         <v>19.619377</v>
       </c>
       <c r="AB10" s="1">
-        <v>1351.190000</v>
+        <v>1351.19</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.900000</v>
+        <v>-169.9</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>70640.289078</v>
+        <v>70640.289078000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.622303</v>
+        <v>19.622302999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1364.560000</v>
+        <v>1364.56</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.709000</v>
+        <v>-179.709</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>70650.882600</v>
+        <v>70650.882599999997</v>
       </c>
       <c r="AK10" s="1">
         <v>19.625245</v>
       </c>
       <c r="AL10" s="1">
-        <v>1386.210000</v>
+        <v>1386.21</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.664000</v>
+        <v>-209.66399999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>70661.581836</v>
+        <v>70661.581835999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.628217</v>
+        <v>19.628216999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.168000</v>
+        <v>-253.16800000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>70672.518628</v>
+        <v>70672.518628000005</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.631255</v>
+        <v>19.631254999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.633000</v>
+        <v>-312.63299999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>70683.570482</v>
+        <v>70683.570481999996</v>
       </c>
       <c r="AZ10" s="1">
         <v>19.634325</v>
       </c>
       <c r="BA10" s="1">
-        <v>1453.540000</v>
+        <v>1453.54</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.136000</v>
+        <v>-364.13600000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>70694.207648</v>
+        <v>70694.207647999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.637280</v>
+        <v>19.637280000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1540.200000</v>
+        <v>1540.2</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.790000</v>
+        <v>-609.79</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>70705.412271</v>
+        <v>70705.412270999994</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.640392</v>
+        <v>19.640391999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1696.590000</v>
+        <v>1696.59</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1048.930000</v>
+        <v>-1048.93</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>70716.841585</v>
+        <v>70716.841585000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.643567</v>
+        <v>19.643567000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.320000</v>
+        <v>1993.32</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1806.830000</v>
+        <v>-1806.83</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>70727.710917</v>
+        <v>70727.710917000004</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.646586</v>
+        <v>19.646585999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2379.590000</v>
+        <v>2379.59</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2677.210000</v>
+        <v>-2677.21</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>70738.478565</v>
+        <v>70738.478564999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.649577</v>
+        <v>19.649577000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2863.920000</v>
+        <v>2863.92</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3625.320000</v>
+        <v>-3625.32</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>70750.329973</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.652869</v>
+        <v>19.652868999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4257.000000</v>
+        <v>4257</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5904.610000</v>
+        <v>-5904.61</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>70577.975162</v>
+        <v>70577.975162000002</v>
       </c>
       <c r="B11" s="1">
         <v>19.604993</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.110000</v>
+        <v>1248.1099999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-300.227000</v>
+        <v>-300.22699999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>70588.434825</v>
+        <v>70588.434825000004</v>
       </c>
       <c r="G11" s="1">
         <v>19.607899</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.060000</v>
+        <v>1272.06</v>
       </c>
       <c r="I11" s="1">
-        <v>-259.474000</v>
+        <v>-259.47399999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>70598.611710</v>
+        <v>70598.611709999997</v>
       </c>
       <c r="L11" s="1">
-        <v>19.610725</v>
+        <v>19.610724999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.560000</v>
+        <v>1307.56</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.744000</v>
+        <v>-200.744</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>70609.141811</v>
+        <v>70609.141810999994</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.613651</v>
+        <v>19.613651000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.430000</v>
+        <v>1319.43</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.824000</v>
+        <v>-183.82400000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>70619.629186</v>
+        <v>70619.629186000006</v>
       </c>
       <c r="V11" s="1">
         <v>19.616564</v>
       </c>
       <c r="W11" s="1">
-        <v>1333.090000</v>
+        <v>1333.09</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.166000</v>
+        <v>-171.166</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>70630.111635</v>
+        <v>70630.111634999994</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.619475</v>
+        <v>19.619475000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1351.240000</v>
+        <v>1351.24</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.900000</v>
+        <v>-169.9</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>70640.722550</v>
+        <v>70640.722550000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.622423</v>
+        <v>19.622423000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1364.470000</v>
+        <v>1364.47</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.676000</v>
+        <v>-179.67599999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>70651.147959</v>
+        <v>70651.147958999994</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.625319</v>
+        <v>19.625319000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1386.220000</v>
+        <v>1386.22</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.671000</v>
+        <v>-209.67099999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>70661.875936</v>
+        <v>70661.875935999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.628299</v>
+        <v>19.628298999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1408.580000</v>
+        <v>1408.58</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.189000</v>
+        <v>-253.18899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>70672.882430</v>
+        <v>70672.882429999998</v>
       </c>
       <c r="AU11" s="1">
         <v>19.631356</v>
       </c>
       <c r="AV11" s="1">
-        <v>1433.820000</v>
+        <v>1433.82</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.614000</v>
+        <v>-312.61399999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>70683.931036</v>
+        <v>70683.931035999994</v>
       </c>
       <c r="AZ11" s="1">
         <v>19.634425</v>
       </c>
       <c r="BA11" s="1">
-        <v>1453.570000</v>
+        <v>1453.57</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.216000</v>
+        <v>-364.21600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>70694.569262</v>
+        <v>70694.569262000005</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.637380</v>
+        <v>19.63738</v>
       </c>
       <c r="BF11" s="1">
-        <v>1540.240000</v>
+        <v>1540.24</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.753000</v>
+        <v>-609.75300000000004</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>70706.185534</v>
+        <v>70706.185534000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.640607</v>
+        <v>19.640606999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1696.480000</v>
+        <v>1696.48</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1048.980000</v>
+        <v>-1048.98</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>70717.656017</v>
+        <v>70717.656017000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.643793</v>
+        <v>19.643792999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.510000</v>
+        <v>1993.51</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1806.840000</v>
+        <v>-1806.84</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>70728.138005</v>
+        <v>70728.138005000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.646705</v>
+        <v>19.646705000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2379.630000</v>
+        <v>2379.63</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2678.340000</v>
+        <v>-2678.34</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>70738.904630</v>
+        <v>70738.904630000005</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.649696</v>
+        <v>19.649695999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2864.190000</v>
+        <v>2864.19</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3625.650000</v>
+        <v>-3625.65</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>70750.866679</v>
+        <v>70750.866678999999</v>
       </c>
       <c r="CD11" s="1">
         <v>19.653019</v>
       </c>
       <c r="CE11" s="1">
-        <v>4279.250000</v>
+        <v>4279.25</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5896.230000</v>
+        <v>-5896.23</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>70578.353111</v>
+        <v>70578.353111000004</v>
       </c>
       <c r="B12" s="1">
-        <v>19.605098</v>
+        <v>19.605098000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.260000</v>
+        <v>1248.26</v>
       </c>
       <c r="D12" s="1">
-        <v>-300.213000</v>
+        <v>-300.21300000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>70588.780046</v>
       </c>
       <c r="G12" s="1">
-        <v>19.607994</v>
+        <v>19.607994000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.410000</v>
+        <v>1272.4100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.954000</v>
+        <v>-260.95400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>70598.956429</v>
+        <v>70598.956428999998</v>
       </c>
       <c r="L12" s="1">
-        <v>19.610821</v>
+        <v>19.610821000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.460000</v>
+        <v>1307.46</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.947000</v>
+        <v>-200.947</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>70609.486496</v>
+        <v>70609.486495999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.613746</v>
+        <v>19.613745999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.550000</v>
+        <v>1319.55</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.874000</v>
+        <v>-183.874</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>70620.046352</v>
+        <v>70620.046352000005</v>
       </c>
       <c r="V12" s="1">
-        <v>19.616680</v>
+        <v>19.616679999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1333.070000</v>
+        <v>1333.07</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.173000</v>
+        <v>-171.173</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>70630.538726</v>
+        <v>70630.538725999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.619594</v>
+        <v>19.619593999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1351.260000</v>
+        <v>1351.26</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.821000</v>
+        <v>-169.821</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>70641.001302</v>
+        <v>70641.001302000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.622500</v>
+        <v>19.622499999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1364.800000</v>
+        <v>1364.8</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.599000</v>
+        <v>-179.59899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>70651.498632</v>
+        <v>70651.498632000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.625416</v>
+        <v>19.625416000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1386.220000</v>
+        <v>1386.22</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.656000</v>
+        <v>-209.65600000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>70662.238506</v>
+        <v>70662.238505999994</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.628400</v>
+        <v>19.628399999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1408.630000</v>
+        <v>1408.63</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.180000</v>
+        <v>-253.18</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>70673.247706</v>
+        <v>70673.247705999995</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.631458</v>
+        <v>19.631457999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.610000</v>
+        <v>-312.61</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>70684.290141</v>
+        <v>70684.290141000005</v>
       </c>
       <c r="AZ12" s="1">
         <v>19.634525</v>
       </c>
       <c r="BA12" s="1">
-        <v>1453.590000</v>
+        <v>1453.59</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.197000</v>
+        <v>-364.197</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>70695.287439</v>
+        <v>70695.287439000007</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.637580</v>
+        <v>19.63758</v>
       </c>
       <c r="BF12" s="1">
-        <v>1540.250000</v>
+        <v>1540.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.724000</v>
+        <v>-609.72400000000005</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>70706.560510</v>
+        <v>70706.560509999996</v>
       </c>
       <c r="BJ12" s="1">
         <v>19.640711</v>
       </c>
       <c r="BK12" s="1">
-        <v>1696.520000</v>
+        <v>1696.52</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1048.970000</v>
+        <v>-1048.97</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>70718.075663</v>
+        <v>70718.075662999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.643910</v>
+        <v>19.643910000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.260000</v>
+        <v>1993.26</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1806.830000</v>
+        <v>-1806.83</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>70728.564530</v>
+        <v>70728.564530000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.646823</v>
+        <v>19.646823000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2379.910000</v>
+        <v>2379.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2679.670000</v>
+        <v>-2679.67</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>70739.350532</v>
+        <v>70739.350531999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.649820</v>
+        <v>19.649819999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2864.210000</v>
+        <v>2864.21</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3625.270000</v>
+        <v>-3625.27</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>70751.717284</v>
+        <v>70751.717283999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.653255</v>
+        <v>19.653255000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4266.930000</v>
+        <v>4266.93</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5910.900000</v>
+        <v>-5910.9</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>70578.709271</v>
       </c>
@@ -3308,1131 +3724,1131 @@
         <v>19.605197</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.960000</v>
+        <v>1247.96</v>
       </c>
       <c r="D13" s="1">
-        <v>-300.353000</v>
+        <v>-300.35300000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>70589.126217</v>
+        <v>70589.126216999997</v>
       </c>
       <c r="G13" s="1">
-        <v>19.608091</v>
+        <v>19.608091000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.490000</v>
+        <v>1272.49</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.315000</v>
+        <v>-260.315</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>70599.372368</v>
+        <v>70599.372367999997</v>
       </c>
       <c r="L13" s="1">
         <v>19.610937</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.470000</v>
+        <v>1307.47</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.707000</v>
+        <v>-200.70699999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>70609.908095</v>
+        <v>70609.908095000006</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.613863</v>
+        <v>19.613862999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.520000</v>
+        <v>1319.52</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.951000</v>
+        <v>-183.95099999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>70620.324080</v>
+        <v>70620.324080000006</v>
       </c>
       <c r="V13" s="1">
         <v>19.616757</v>
       </c>
       <c r="W13" s="1">
-        <v>1333.110000</v>
+        <v>1333.11</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.333000</v>
+        <v>-171.333</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>70630.802929</v>
+        <v>70630.802928999998</v>
       </c>
       <c r="AA13" s="1">
         <v>19.619667</v>
       </c>
       <c r="AB13" s="1">
-        <v>1351.160000</v>
+        <v>1351.16</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.734000</v>
+        <v>-169.73400000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>70641.344068</v>
+        <v>70641.344068000006</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.622596</v>
+        <v>19.622596000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1364.710000</v>
+        <v>1364.71</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.944000</v>
+        <v>-179.94399999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>70651.846326</v>
+        <v>70651.846325999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.625513</v>
+        <v>19.625513000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1386.240000</v>
+        <v>1386.24</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.670000</v>
+        <v>-209.67</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>70662.598600</v>
+        <v>70662.598599999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.628500</v>
+        <v>19.628499999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.194000</v>
+        <v>-253.19399999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>70673.975833</v>
+        <v>70673.975833000004</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.631660</v>
+        <v>19.63166</v>
       </c>
       <c r="AV13" s="1">
-        <v>1433.820000</v>
+        <v>1433.82</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.597000</v>
+        <v>-312.59699999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>70685.014795</v>
+        <v>70685.014794999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.634726</v>
+        <v>19.634726000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1453.570000</v>
+        <v>1453.57</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.147000</v>
+        <v>-364.14699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>70695.680451</v>
+        <v>70695.680450999993</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.637689</v>
+        <v>19.637689000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1540.240000</v>
+        <v>1540.24</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.753000</v>
+        <v>-609.75300000000004</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>70706.935023</v>
+        <v>70706.935022999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>19.640815</v>
       </c>
       <c r="BK13" s="1">
-        <v>1696.510000</v>
+        <v>1696.51</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1048.920000</v>
+        <v>-1048.92</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>70718.471935</v>
+        <v>70718.471934999994</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.644020</v>
+        <v>19.644020000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1993.210000</v>
+        <v>1993.21</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1806.790000</v>
+        <v>-1806.79</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>70729.284224</v>
+        <v>70729.284224000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.647023</v>
+        <v>19.647023000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2380.990000</v>
+        <v>2380.9899999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2679.950000</v>
+        <v>-2679.95</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>70739.799907</v>
+        <v>70739.799906999993</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.649944</v>
+        <v>19.649944000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2863.620000</v>
+        <v>2863.62</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3625.560000</v>
+        <v>-3625.56</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>70751.945938</v>
+        <v>70751.945938000004</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.653318</v>
+        <v>19.653317999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4263.920000</v>
+        <v>4263.92</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5910.520000</v>
+        <v>-5910.52</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>70579.038584</v>
+        <v>70579.038583999994</v>
       </c>
       <c r="B14" s="1">
-        <v>19.605288</v>
+        <v>19.605288000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.960000</v>
+        <v>1247.96</v>
       </c>
       <c r="D14" s="1">
-        <v>-300.171000</v>
+        <v>-300.17099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>70589.554301</v>
+        <v>70589.554300999996</v>
       </c>
       <c r="G14" s="1">
-        <v>19.608210</v>
+        <v>19.60821</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.470000</v>
+        <v>1272.47</v>
       </c>
       <c r="I14" s="1">
-        <v>-260.537000</v>
+        <v>-260.53699999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>70599.647852</v>
+        <v>70599.647851999995</v>
       </c>
       <c r="L14" s="1">
         <v>19.611013</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.470000</v>
+        <v>1307.47</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.787000</v>
+        <v>-200.78700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>70610.185358</v>
+        <v>70610.185358000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.613940</v>
+        <v>19.613939999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.510000</v>
+        <v>1319.51</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.889000</v>
+        <v>-183.88900000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>70620.667344</v>
+        <v>70620.667344000001</v>
       </c>
       <c r="V14" s="1">
-        <v>19.616852</v>
+        <v>19.616852000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.170000</v>
+        <v>-171.17</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>70631.150258</v>
+        <v>70631.150257999994</v>
       </c>
       <c r="AA14" s="1">
         <v>19.619764</v>
       </c>
       <c r="AB14" s="1">
-        <v>1351.320000</v>
+        <v>1351.32</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.698000</v>
+        <v>-169.69800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>70641.688785</v>
+        <v>70641.688785000006</v>
       </c>
       <c r="AF14" s="1">
         <v>19.622691</v>
       </c>
       <c r="AG14" s="1">
-        <v>1364.690000</v>
+        <v>1364.69</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.734000</v>
+        <v>-179.73400000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>70652.545224</v>
+        <v>70652.545224000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.625707</v>
+        <v>19.625706999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1386.230000</v>
+        <v>1386.23</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.638000</v>
+        <v>-209.63800000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>70663.325239</v>
+        <v>70663.325238999998</v>
       </c>
       <c r="AP14" s="1">
         <v>19.628701</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1408.600000</v>
+        <v>1408.6</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.203000</v>
+        <v>-253.203</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>70674.366186</v>
+        <v>70674.366185999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.631768</v>
+        <v>19.631768000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1433.820000</v>
+        <v>1433.82</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.603000</v>
+        <v>-312.60300000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>70685.520715</v>
+        <v>70685.520715000006</v>
       </c>
       <c r="AZ14" s="1">
         <v>19.634867</v>
       </c>
       <c r="BA14" s="1">
-        <v>1453.590000</v>
+        <v>1453.59</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.159000</v>
+        <v>-364.15899999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>70696.042844</v>
+        <v>70696.042843999996</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.637790</v>
+        <v>19.637789999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1540.240000</v>
+        <v>1540.24</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.759000</v>
+        <v>-609.75900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>70707.628896</v>
+        <v>70707.628895999995</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.641008</v>
+        <v>19.641007999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1696.490000</v>
+        <v>1696.49</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1048.960000</v>
+        <v>-1048.96</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>70719.200061</v>
+        <v>70719.200060999996</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.644222</v>
+        <v>19.644221999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.410000</v>
+        <v>1993.41</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1806.740000</v>
+        <v>-1806.74</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>70729.408720</v>
+        <v>70729.408720000007</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.647058</v>
+        <v>19.647058000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2382.200000</v>
+        <v>2382.1999999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2680.330000</v>
+        <v>-2680.33</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>70740.196242</v>
+        <v>70740.196242000005</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.650055</v>
+        <v>19.650054999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2863.670000</v>
+        <v>2863.67</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3625.730000</v>
+        <v>-3625.73</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>70752.466243</v>
+        <v>70752.466243000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.653463</v>
+        <v>19.653462999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4277.890000</v>
+        <v>4277.8900000000003</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5899.680000</v>
+        <v>-5899.68</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>70579.724140</v>
+        <v>70579.724140000006</v>
       </c>
       <c r="B15" s="1">
-        <v>19.605479</v>
+        <v>19.605478999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="D15" s="1">
-        <v>-300.110000</v>
+        <v>-300.11</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>70589.834008</v>
+        <v>70589.834008000005</v>
       </c>
       <c r="G15" s="1">
-        <v>19.608287</v>
+        <v>19.608287000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1271.780000</v>
+        <v>1271.78</v>
       </c>
       <c r="I15" s="1">
-        <v>-260.000000</v>
+        <v>-260</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>70599.998027</v>
+        <v>70599.998026999994</v>
       </c>
       <c r="L15" s="1">
-        <v>19.611111</v>
+        <v>19.611111000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.680000</v>
+        <v>1307.68</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.153000</v>
+        <v>-201.15299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>70610.534541</v>
+        <v>70610.534541000001</v>
       </c>
       <c r="Q15" s="1">
         <v>19.614037</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.500000</v>
+        <v>1319.5</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.897000</v>
+        <v>-183.89699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>70621.012559</v>
+        <v>70621.012558999995</v>
       </c>
       <c r="V15" s="1">
-        <v>19.616948</v>
+        <v>19.616948000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1333.310000</v>
+        <v>1333.31</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.243000</v>
+        <v>-171.24299999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>70631.502418</v>
+        <v>70631.502418000004</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.619862</v>
+        <v>19.619862000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1351.280000</v>
+        <v>1351.28</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.847000</v>
+        <v>-169.84700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>70642.376211</v>
+        <v>70642.376210999995</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.622882</v>
+        <v>19.622882000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1364.800000</v>
+        <v>1364.8</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.759000</v>
+        <v>-179.75899999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>70652.892885</v>
+        <v>70652.892884999994</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.625804</v>
+        <v>19.625803999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1386.230000</v>
+        <v>1386.23</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.666000</v>
+        <v>-209.666</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>70663.702694</v>
+        <v>70663.702694000007</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.628806</v>
+        <v>19.628806000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.208000</v>
+        <v>-253.208</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>70674.733227</v>
+        <v>70674.733227000004</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.631870</v>
+        <v>19.631869999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.617000</v>
+        <v>-312.61700000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>70685.782105</v>
+        <v>70685.782105000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.634939</v>
+        <v>19.634938999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1453.550000</v>
+        <v>1453.55</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.200000</v>
+        <v>-364.2</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>70696.731787</v>
+        <v>70696.731786999997</v>
       </c>
       <c r="BE15" s="1">
         <v>19.637981</v>
       </c>
       <c r="BF15" s="1">
-        <v>1540.200000</v>
+        <v>1540.2</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.721000</v>
+        <v>-609.721</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>70708.093644</v>
+        <v>70708.093643999993</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.641137</v>
+        <v>19.641137000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1696.480000</v>
+        <v>1696.48</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1048.940000</v>
+        <v>-1048.94</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>70719.308189</v>
+        <v>70719.308189000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.644252</v>
+        <v>19.644252000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.280000</v>
+        <v>1993.28</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1806.690000</v>
+        <v>-1806.69</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>70729.847183</v>
+        <v>70729.847183000005</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.647180</v>
+        <v>19.647179999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2383.280000</v>
+        <v>2383.2800000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2679.920000</v>
+        <v>-2679.92</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>70740.644099</v>
+        <v>70740.644098999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.650179</v>
+        <v>19.650179000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2864.490000</v>
+        <v>2864.49</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3625.080000</v>
+        <v>-3625.08</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>70752.985100</v>
+        <v>70752.985100000005</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.653607</v>
+        <v>19.653607000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4263.450000</v>
+        <v>4263.45</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5889.470000</v>
+        <v>-5889.47</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>70580.066293</v>
+        <v>70580.066292999996</v>
       </c>
       <c r="B16" s="1">
-        <v>19.605574</v>
+        <v>19.605574000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.030000</v>
+        <v>1248.03</v>
       </c>
       <c r="D16" s="1">
-        <v>-300.222000</v>
+        <v>-300.22199999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>70590.184185</v>
+        <v>70590.184185000006</v>
       </c>
       <c r="G16" s="1">
-        <v>19.608384</v>
+        <v>19.608384000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1271.980000</v>
+        <v>1271.98</v>
       </c>
       <c r="I16" s="1">
-        <v>-259.914000</v>
+        <v>-259.91399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>70600.340795</v>
+        <v>70600.340794999996</v>
       </c>
       <c r="L16" s="1">
-        <v>19.611206</v>
+        <v>19.611205999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.520000</v>
+        <v>1307.52</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.997000</v>
+        <v>-200.99700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>70610.882732</v>
+        <v>70610.882731999998</v>
       </c>
       <c r="Q16" s="1">
         <v>19.614134</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.580000</v>
+        <v>1319.58</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.792000</v>
+        <v>-183.792</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>70621.698990</v>
+        <v>70621.698990000004</v>
       </c>
       <c r="V16" s="1">
-        <v>19.617139</v>
+        <v>19.617139000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.930000</v>
+        <v>1332.93</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.242000</v>
+        <v>-171.24199999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>70632.198304</v>
+        <v>70632.198304000005</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.620055</v>
+        <v>19.620055000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1351.300000</v>
+        <v>1351.3</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.763000</v>
+        <v>-169.76300000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>70642.716964</v>
+        <v>70642.716964000007</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.622977</v>
+        <v>19.622976999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1364.810000</v>
+        <v>1364.81</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.708000</v>
+        <v>-179.708</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>70653.240613</v>
+        <v>70653.240613000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.625900</v>
+        <v>19.625900000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1386.210000</v>
+        <v>1386.21</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.645000</v>
+        <v>-209.64500000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>70664.092055</v>
+        <v>70664.092055000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.628914</v>
+        <v>19.628914000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.202000</v>
+        <v>-253.202</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>70675.414232</v>
+        <v>70675.414231999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.632060</v>
+        <v>19.632059999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1433.840000</v>
+        <v>1433.84</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.608000</v>
+        <v>-312.608</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>70686.231483</v>
+        <v>70686.231482999996</v>
       </c>
       <c r="AZ16" s="1">
         <v>19.635064</v>
       </c>
       <c r="BA16" s="1">
-        <v>1453.560000</v>
+        <v>1453.56</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.172000</v>
+        <v>-364.17200000000003</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>70697.127099</v>
+        <v>70697.127099000005</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.638091</v>
+        <v>19.638090999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1540.210000</v>
+        <v>1540.21</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.741000</v>
+        <v>-609.74099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>70708.483036</v>
+        <v>70708.483036000005</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.641245</v>
+        <v>19.641245000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1696.480000</v>
+        <v>1696.48</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1048.820000</v>
+        <v>-1048.82</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>70719.711672</v>
+        <v>70719.711672000005</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.644364</v>
+        <v>19.644363999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1993.260000</v>
+        <v>1993.26</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1806.710000</v>
+        <v>-1806.71</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>70730.273775</v>
+        <v>70730.273774999994</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.647298</v>
+        <v>19.647297999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2383.730000</v>
+        <v>2383.73</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2678.890000</v>
+        <v>-2678.89</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>70741.074625</v>
+        <v>70741.074624999994</v>
       </c>
       <c r="BY16" s="1">
         <v>19.650299</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2863.790000</v>
+        <v>2863.79</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3625.150000</v>
+        <v>-3625.15</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>70753.503416</v>
+        <v>70753.503416000007</v>
       </c>
       <c r="CD16" s="1">
         <v>19.653751</v>
       </c>
       <c r="CE16" s="1">
-        <v>4258.940000</v>
+        <v>4258.9399999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5906.630000</v>
+        <v>-5906.63</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>70580.410054</v>
+        <v>70580.410054000007</v>
       </c>
       <c r="B17" s="1">
-        <v>19.605669</v>
+        <v>19.605668999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D17" s="1">
-        <v>-300.618000</v>
+        <v>-300.61799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>70590.524936</v>
+        <v>70590.524936000002</v>
       </c>
       <c r="G17" s="1">
-        <v>19.608479</v>
+        <v>19.608478999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.700000</v>
+        <v>1272.7</v>
       </c>
       <c r="I17" s="1">
-        <v>-260.427000</v>
+        <v>-260.42700000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>70601.032681</v>
+        <v>70601.032680999997</v>
       </c>
       <c r="L17" s="1">
-        <v>19.611398</v>
+        <v>19.611398000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.400000</v>
+        <v>1307.4000000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.895000</v>
+        <v>-200.89500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>70611.582093</v>
+        <v>70611.582093000005</v>
       </c>
       <c r="Q17" s="1">
         <v>19.614328</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.540000</v>
+        <v>1319.54</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.880000</v>
+        <v>-183.88</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>70622.038750</v>
+        <v>70622.038750000007</v>
       </c>
       <c r="V17" s="1">
-        <v>19.617233</v>
+        <v>19.617232999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1333.180000</v>
+        <v>1333.18</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.232000</v>
+        <v>-171.232</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>70632.547985</v>
+        <v>70632.547984999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.620152</v>
+        <v>19.620152000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1351.320000</v>
+        <v>1351.32</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.769000</v>
+        <v>-169.76900000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>70643.063666</v>
+        <v>70643.063666000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.623073</v>
+        <v>19.623073000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1364.730000</v>
+        <v>1364.73</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.749000</v>
+        <v>-179.749</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>70653.904725</v>
@@ -4441,1857 +4857,1857 @@
         <v>19.626085</v>
       </c>
       <c r="AL17" s="1">
-        <v>1386.240000</v>
+        <v>1386.24</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.641000</v>
+        <v>-209.64099999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>70664.764167</v>
+        <v>70664.764167000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.629101</v>
+        <v>19.629100999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1408.600000</v>
+        <v>1408.6</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.204000</v>
+        <v>-253.20400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>70675.850252</v>
+        <v>70675.850252000004</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.632181</v>
+        <v>19.632180999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.598000</v>
+        <v>-312.59800000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>70686.499321</v>
+        <v>70686.499320999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.635139</v>
+        <v>19.635138999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1453.570000</v>
+        <v>1453.57</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.164000</v>
+        <v>-364.16399999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>70697.514507</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.638198</v>
+        <v>19.638197999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1540.220000</v>
+        <v>1540.22</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.737000</v>
+        <v>-609.73699999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>70708.859995</v>
+        <v>70708.859995000006</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.641350</v>
+        <v>19.641349999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1696.490000</v>
+        <v>1696.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1048.910000</v>
+        <v>-1048.9100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>70720.108732</v>
+        <v>70720.108731999993</v>
       </c>
       <c r="BO17" s="1">
         <v>19.644475</v>
       </c>
       <c r="BP17" s="1">
-        <v>1993.270000</v>
+        <v>1993.27</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1806.610000</v>
+        <v>-1806.61</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>70730.694846</v>
+        <v>70730.694845999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>19.647415</v>
+        <v>19.647414999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2384.550000</v>
+        <v>2384.5500000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2677.530000</v>
+        <v>-2677.53</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>70741.496721</v>
+        <v>70741.496721000003</v>
       </c>
       <c r="BY17" s="1">
         <v>19.650416</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2863.930000</v>
+        <v>2863.93</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3625.560000</v>
+        <v>-3625.56</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>70754.021236</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.653895</v>
+        <v>19.653894999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4255.200000</v>
+        <v>4255.2</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5900.750000</v>
+        <v>-5900.75</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>70581.090824</v>
+        <v>70581.090823999999</v>
       </c>
       <c r="B18" s="1">
-        <v>19.605859</v>
+        <v>19.605858999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.830000</v>
+        <v>1247.83</v>
       </c>
       <c r="D18" s="1">
-        <v>-300.265000</v>
+        <v>-300.26499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>70591.211431</v>
+        <v>70591.211431000003</v>
       </c>
       <c r="G18" s="1">
-        <v>19.608670</v>
+        <v>19.60867</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.790000</v>
+        <v>1272.79</v>
       </c>
       <c r="I18" s="1">
-        <v>-260.559000</v>
+        <v>-260.55900000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>70601.377897</v>
+        <v>70601.377896999998</v>
       </c>
       <c r="L18" s="1">
         <v>19.611494</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.450000</v>
+        <v>1307.45</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.922000</v>
+        <v>-200.922</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>70611.928830</v>
+        <v>70611.928830000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.614425</v>
+        <v>19.614425000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.580000</v>
+        <v>1319.58</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.895000</v>
+        <v>-183.89500000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>70622.385981</v>
+        <v>70622.385980999999</v>
       </c>
       <c r="V18" s="1">
-        <v>19.617329</v>
+        <v>19.617329000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1333.140000</v>
+        <v>1333.14</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.293000</v>
+        <v>-171.29300000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>70633.210673</v>
+        <v>70633.210672999994</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.620336</v>
+        <v>19.620336000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1351.180000</v>
+        <v>1351.18</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.691000</v>
+        <v>-169.691</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>70643.717393</v>
+        <v>70643.717392999999</v>
       </c>
       <c r="AF18" s="1">
         <v>19.623255</v>
       </c>
       <c r="AG18" s="1">
-        <v>1364.830000</v>
+        <v>1364.83</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.459000</v>
+        <v>-179.459</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>70654.289123</v>
+        <v>70654.289122999995</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.626191</v>
+        <v>19.626190999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1386.190000</v>
+        <v>1386.19</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.651000</v>
+        <v>-209.65100000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>70665.174325</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.629215</v>
+        <v>19.629214999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1408.570000</v>
+        <v>1408.57</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.181000</v>
+        <v>-253.18100000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>70676.216760</v>
+        <v>70676.216759999996</v>
       </c>
       <c r="AU18" s="1">
         <v>19.632282</v>
       </c>
       <c r="AV18" s="1">
-        <v>1433.800000</v>
+        <v>1433.8</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.568000</v>
+        <v>-312.56799999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>70686.856474</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.635238</v>
+        <v>19.635238000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1453.580000</v>
+        <v>1453.58</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.174000</v>
+        <v>-364.17399999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>70697.875591</v>
+        <v>70697.875591000004</v>
       </c>
       <c r="BE18" s="1">
         <v>19.638299</v>
       </c>
       <c r="BF18" s="1">
-        <v>1540.200000</v>
+        <v>1540.2</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.711000</v>
+        <v>-609.71100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>70709.271146</v>
+        <v>70709.271145999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.641464</v>
+        <v>19.641463999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1696.530000</v>
+        <v>1696.53</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1048.890000</v>
+        <v>-1048.8900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>70720.531857</v>
+        <v>70720.531856999994</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.644592</v>
+        <v>19.644591999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1993.270000</v>
+        <v>1993.27</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1806.560000</v>
+        <v>-1806.56</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>70731.116943</v>
+        <v>70731.116943000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.647532</v>
+        <v>19.647532000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>2383.860000</v>
+        <v>2383.86</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2676.400000</v>
+        <v>-2676.4</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>70741.919807</v>
+        <v>70741.919806999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.650533</v>
+        <v>19.650532999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2864.180000</v>
+        <v>2864.18</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3625.000000</v>
+        <v>-3625</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>70754.571790</v>
+        <v>70754.571790000002</v>
       </c>
       <c r="CD18" s="1">
         <v>19.654048</v>
       </c>
       <c r="CE18" s="1">
-        <v>4259.800000</v>
+        <v>4259.8</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5889.760000</v>
+        <v>-5889.76</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>70581.442208</v>
+        <v>70581.442207999993</v>
       </c>
       <c r="B19" s="1">
-        <v>19.605956</v>
+        <v>19.605955999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.140000</v>
+        <v>1248.1400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-300.300000</v>
+        <v>-300.3</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>70591.556467</v>
+        <v>70591.556467000002</v>
       </c>
       <c r="G19" s="1">
-        <v>19.608766</v>
+        <v>19.608765999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.310000</v>
+        <v>1273.31</v>
       </c>
       <c r="I19" s="1">
-        <v>-260.407000</v>
+        <v>-260.40699999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>70601.724106</v>
+        <v>70601.724105999994</v>
       </c>
       <c r="L19" s="1">
-        <v>19.611590</v>
+        <v>19.61159</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.560000</v>
+        <v>1307.56</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.802000</v>
+        <v>-200.80199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>70612.279467</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.614522</v>
+        <v>19.614522000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.590000</v>
+        <v>1319.59</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.861000</v>
+        <v>-183.86099999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>70623.039182</v>
+        <v>70623.039181999993</v>
       </c>
       <c r="V19" s="1">
         <v>19.617511</v>
       </c>
       <c r="W19" s="1">
-        <v>1333.000000</v>
+        <v>1333</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.026000</v>
+        <v>-171.02600000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>70633.600494</v>
+        <v>70633.600493999998</v>
       </c>
       <c r="AA19" s="1">
         <v>19.620445</v>
       </c>
       <c r="AB19" s="1">
-        <v>1351.230000</v>
+        <v>1351.23</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.790000</v>
+        <v>-169.79</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>70644.101659</v>
+        <v>70644.101659000007</v>
       </c>
       <c r="AF19" s="1">
         <v>19.623362</v>
       </c>
       <c r="AG19" s="1">
-        <v>1364.630000</v>
+        <v>1364.63</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.720000</v>
+        <v>-179.72</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>70654.632851</v>
+        <v>70654.632851000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.626287</v>
+        <v>19.626287000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1386.220000</v>
+        <v>1386.22</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.663000</v>
+        <v>-209.66300000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>70665.559222</v>
+        <v>70665.559221999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.629322</v>
+        <v>19.629321999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1408.600000</v>
+        <v>1408.6</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.169000</v>
+        <v>-253.16900000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>70676.583799</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.632384</v>
+        <v>19.632383999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1433.840000</v>
+        <v>1433.84</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.596000</v>
+        <v>-312.596</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>70687.274105</v>
+        <v>70687.274105000004</v>
       </c>
       <c r="AZ19" s="1">
         <v>19.635354</v>
       </c>
       <c r="BA19" s="1">
-        <v>1453.550000</v>
+        <v>1453.55</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.149000</v>
+        <v>-364.149</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>70698.300633</v>
+        <v>70698.300633000006</v>
       </c>
       <c r="BE19" s="1">
         <v>19.638417</v>
       </c>
       <c r="BF19" s="1">
-        <v>1540.220000</v>
+        <v>1540.22</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.728000</v>
+        <v>-609.72799999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>70709.609450</v>
+        <v>70709.609450000004</v>
       </c>
       <c r="BJ19" s="1">
         <v>19.641558</v>
       </c>
       <c r="BK19" s="1">
-        <v>1696.420000</v>
+        <v>1696.42</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1048.890000</v>
+        <v>-1048.8900000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>70720.959868</v>
+        <v>70720.959868000005</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.644711</v>
+        <v>19.644711000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1993.180000</v>
+        <v>1993.18</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1806.700000</v>
+        <v>-1806.7</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>70731.547005</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.647652</v>
+        <v>19.647652000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2383.170000</v>
+        <v>2383.17</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2675.770000</v>
+        <v>-2675.77</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>70742.344881</v>
+        <v>70742.344880999997</v>
       </c>
       <c r="BY19" s="1">
         <v>19.650651</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2863.340000</v>
+        <v>2863.34</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3624.820000</v>
+        <v>-3624.82</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>70755.101487</v>
+        <v>70755.101487000007</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.654195</v>
+        <v>19.654195000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4259.560000</v>
+        <v>4259.5600000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5908.200000</v>
+        <v>-5908.2</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>70581.782948</v>
+        <v>70581.782947999993</v>
       </c>
       <c r="B20" s="1">
-        <v>19.606051</v>
+        <v>19.606051000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.870000</v>
+        <v>1247.8699999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-300.058000</v>
+        <v>-300.05799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>70591.904806</v>
+        <v>70591.904806000006</v>
       </c>
       <c r="G20" s="1">
-        <v>19.608862</v>
+        <v>19.608861999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.310000</v>
+        <v>1272.31</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.459000</v>
+        <v>-261.459</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>70602.380809</v>
+        <v>70602.380808999995</v>
       </c>
       <c r="L20" s="1">
-        <v>19.611772</v>
+        <v>19.611771999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.340000</v>
+        <v>1307.3399999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.855000</v>
+        <v>-200.85499999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>70612.938154</v>
+        <v>70612.938154000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.614705</v>
+        <v>19.614705000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.560000</v>
+        <v>1319.56</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.783000</v>
+        <v>-183.78299999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>70623.414652</v>
+        <v>70623.414652000007</v>
       </c>
       <c r="V20" s="1">
-        <v>19.617615</v>
+        <v>19.617615000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1333.130000</v>
+        <v>1333.13</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.340000</v>
+        <v>-171.34</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>70633.949679</v>
+        <v>70633.949678999998</v>
       </c>
       <c r="AA20" s="1">
         <v>19.620542</v>
       </c>
       <c r="AB20" s="1">
-        <v>1351.230000</v>
+        <v>1351.23</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.605000</v>
+        <v>-169.60499999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>70644.447010</v>
+        <v>70644.447010000004</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.623458</v>
+        <v>19.623457999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1364.670000</v>
+        <v>1364.67</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.887000</v>
+        <v>-179.887</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>70654.984061</v>
+        <v>70654.984060999996</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.626384</v>
+        <v>19.626384000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1386.230000</v>
+        <v>1386.23</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.666000</v>
+        <v>-209.666</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>70665.918820</v>
+        <v>70665.918820000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.629422</v>
+        <v>19.629422000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.207000</v>
+        <v>-253.20699999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>70676.996997</v>
+        <v>70676.996996999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.632499</v>
+        <v>19.632498999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1433.840000</v>
+        <v>1433.84</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.596000</v>
+        <v>-312.596</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>70687.574682</v>
+        <v>70687.574682000006</v>
       </c>
       <c r="AZ20" s="1">
         <v>19.635437</v>
       </c>
       <c r="BA20" s="1">
-        <v>1453.560000</v>
+        <v>1453.56</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.191000</v>
+        <v>-364.19099999999997</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>70698.599258</v>
+        <v>70698.599258000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.638500</v>
+        <v>19.638500000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1540.210000</v>
+        <v>1540.21</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.693000</v>
+        <v>-609.69299999999998</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>70709.982905</v>
+        <v>70709.982904999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>19.641662</v>
       </c>
       <c r="BK20" s="1">
-        <v>1696.570000</v>
+        <v>1696.57</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1048.880000</v>
+        <v>-1048.8800000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>70721.350752</v>
+        <v>70721.350751999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.644820</v>
+        <v>19.644819999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1993.230000</v>
+        <v>1993.23</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1806.570000</v>
+        <v>-1806.57</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>70731.957196</v>
+        <v>70731.957196000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.647766</v>
+        <v>19.647766000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2381.860000</v>
+        <v>2381.86</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2675.590000</v>
+        <v>-2675.59</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>70742.764035</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.650768</v>
+        <v>19.650767999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2863.150000</v>
+        <v>2863.15</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3625.610000</v>
+        <v>-3625.61</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>70755.622317</v>
+        <v>70755.622317000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.654340</v>
+        <v>19.654340000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4275.540000</v>
+        <v>4275.54</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5904.360000</v>
+        <v>-5904.36</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>70582.430757</v>
+        <v>70582.430756999995</v>
       </c>
       <c r="B21" s="1">
-        <v>19.606231</v>
+        <v>19.606231000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="D21" s="1">
-        <v>-300.208000</v>
+        <v>-300.20800000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>70592.567957</v>
+        <v>70592.567957000007</v>
       </c>
       <c r="G21" s="1">
         <v>19.609047</v>
       </c>
       <c r="H21" s="1">
-        <v>1272.010000</v>
+        <v>1272.01</v>
       </c>
       <c r="I21" s="1">
-        <v>-259.673000</v>
+        <v>-259.673</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>70602.759255</v>
+        <v>70602.759254999997</v>
       </c>
       <c r="L21" s="1">
-        <v>19.611878</v>
+        <v>19.611878000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.580000</v>
+        <v>1307.58</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.077000</v>
+        <v>-201.077</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>70613.324570</v>
+        <v>70613.324569999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.614812</v>
+        <v>19.614812000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.560000</v>
+        <v>1319.56</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.776000</v>
+        <v>-183.77600000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>70623.757389</v>
+        <v>70623.757389000006</v>
       </c>
       <c r="V21" s="1">
-        <v>19.617710</v>
+        <v>19.617709999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1333.290000</v>
+        <v>1333.29</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.234000</v>
+        <v>-171.23400000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>70634.298367</v>
+        <v>70634.298366999996</v>
       </c>
       <c r="AA21" s="1">
         <v>19.620638</v>
       </c>
       <c r="AB21" s="1">
-        <v>1351.110000</v>
+        <v>1351.11</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.854000</v>
+        <v>-169.85400000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>70644.788288</v>
+        <v>70644.788287999996</v>
       </c>
       <c r="AF21" s="1">
         <v>19.623552</v>
       </c>
       <c r="AG21" s="1">
-        <v>1364.860000</v>
+        <v>1364.86</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.659000</v>
+        <v>-179.65899999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>70655.409585</v>
+        <v>70655.409585000001</v>
       </c>
       <c r="AK21" s="1">
         <v>19.626503</v>
       </c>
       <c r="AL21" s="1">
-        <v>1386.210000</v>
+        <v>1386.21</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.649000</v>
+        <v>-209.649</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>70666.333972</v>
+        <v>70666.333971999993</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.629537</v>
+        <v>19.629536999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1408.600000</v>
+        <v>1408.6</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.167000</v>
+        <v>-253.167</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>70677.310966</v>
+        <v>70677.310966000005</v>
       </c>
       <c r="AU21" s="1">
         <v>19.632586</v>
       </c>
       <c r="AV21" s="1">
-        <v>1433.800000</v>
+        <v>1433.8</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.600000</v>
+        <v>-312.60000000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>70687.933255</v>
+        <v>70687.933254999996</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.635537</v>
+        <v>19.635536999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1453.550000</v>
+        <v>1453.55</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.175000</v>
+        <v>-364.17500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>70698.957846</v>
+        <v>70698.957846000005</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.638599</v>
+        <v>19.638598999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1540.220000</v>
+        <v>1540.22</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.733000</v>
+        <v>-609.73299999999995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>70710.382185</v>
+        <v>70710.382184999995</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.641773</v>
+        <v>19.641773000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1696.490000</v>
+        <v>1696.49</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1048.860000</v>
+        <v>-1048.8599999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>70721.935995</v>
+        <v>70721.935995000007</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.644982</v>
+        <v>19.644981999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.320000</v>
+        <v>1993.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1806.630000</v>
+        <v>-1806.63</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>70732.389211</v>
+        <v>70732.389211000002</v>
       </c>
       <c r="BT21" s="1">
         <v>19.647886</v>
       </c>
       <c r="BU21" s="1">
-        <v>2380.790000</v>
+        <v>2380.79</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2675.590000</v>
+        <v>-2675.59</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>70743.208415</v>
+        <v>70743.208415000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.650891</v>
+        <v>19.650891000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2863.860000</v>
+        <v>2863.86</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3625.930000</v>
+        <v>-3625.93</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>70756.140146</v>
+        <v>70756.140146000005</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.654483</v>
+        <v>19.654482999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4270.170000</v>
+        <v>4270.17</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5890.440000</v>
+        <v>-5890.44</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>70582.804706</v>
+        <v>70582.804705999995</v>
       </c>
       <c r="B22" s="1">
-        <v>19.606335</v>
+        <v>19.606335000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.240000</v>
+        <v>1248.24</v>
       </c>
       <c r="D22" s="1">
-        <v>-300.848000</v>
+        <v>-300.84800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>70592.936982</v>
+        <v>70592.936981999999</v>
       </c>
       <c r="G22" s="1">
-        <v>19.609149</v>
+        <v>19.609148999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.530000</v>
+        <v>1272.53</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.033000</v>
+        <v>-261.03300000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>70603.107975</v>
+        <v>70603.107975000006</v>
       </c>
       <c r="L22" s="1">
         <v>19.611974</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.610000</v>
+        <v>1307.6099999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.152000</v>
+        <v>-201.15199999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>70613.672272</v>
+        <v>70613.672271999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.614909</v>
+        <v>19.614909000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.670000</v>
+        <v>1319.67</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.805000</v>
+        <v>-183.80500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>70624.104123</v>
+        <v>70624.104122999997</v>
       </c>
       <c r="V22" s="1">
-        <v>19.617807</v>
+        <v>19.617806999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1333.060000</v>
+        <v>1333.06</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.254000</v>
+        <v>-171.25399999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>70634.724926</v>
+        <v>70634.724925999995</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.620757</v>
+        <v>19.620757000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1352.450000</v>
+        <v>1352.45</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.864000</v>
+        <v>-169.864</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>70645.207884</v>
+        <v>70645.207884000003</v>
       </c>
       <c r="AF22" s="1">
         <v>19.623669</v>
       </c>
       <c r="AG22" s="1">
-        <v>1364.620000</v>
+        <v>1364.62</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.792000</v>
+        <v>-179.792</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>70655.690817</v>
+        <v>70655.690816999995</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.626581</v>
+        <v>19.626581000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1386.220000</v>
+        <v>1386.22</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.632000</v>
+        <v>-209.63200000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>70666.634092</v>
+        <v>70666.634091999993</v>
       </c>
       <c r="AP22" s="1">
         <v>19.629621</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1408.580000</v>
+        <v>1408.58</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.175000</v>
+        <v>-253.17500000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>70677.674998</v>
+        <v>70677.674998000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.632687</v>
+        <v>19.632687000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.615000</v>
+        <v>-312.61500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>70688.292855</v>
+        <v>70688.292855000007</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.635637</v>
+        <v>19.635636999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1453.560000</v>
+        <v>1453.56</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.152000</v>
+        <v>-364.15199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>70699.319946</v>
+        <v>70699.319946000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.638700</v>
+        <v>19.6387</v>
       </c>
       <c r="BF22" s="1">
-        <v>1540.200000</v>
+        <v>1540.2</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.726000</v>
+        <v>-609.726</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>70711.133656</v>
+        <v>70711.133656000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.641982</v>
+        <v>19.641981999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1696.540000</v>
+        <v>1696.54</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1048.870000</v>
+        <v>-1048.8699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>70722.167130</v>
+        <v>70722.167130000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.645046</v>
+        <v>19.645046000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1993.200000</v>
+        <v>1993.2</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1806.620000</v>
+        <v>-1806.62</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>70732.816733</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.648005</v>
+        <v>19.648005000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2379.740000</v>
+        <v>2379.7399999999998</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2676.320000</v>
+        <v>-2676.32</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>70743.631997</v>
+        <v>70743.631997000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.651009</v>
+        <v>19.651008999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2864.410000</v>
+        <v>2864.41</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3625.260000</v>
+        <v>-3625.26</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>70756.657452</v>
+        <v>70756.657451999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.654627</v>
+        <v>19.654627000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4270.430000</v>
+        <v>4270.43</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5891.240000</v>
+        <v>-5891.24</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>70583.146977</v>
+        <v>70583.146976999997</v>
       </c>
       <c r="B23" s="1">
-        <v>19.606430</v>
+        <v>19.60643</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.070000</v>
+        <v>1248.07</v>
       </c>
       <c r="D23" s="1">
-        <v>-300.171000</v>
+        <v>-300.17099999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>70593.283189</v>
+        <v>70593.283188999994</v>
       </c>
       <c r="G23" s="1">
-        <v>19.609245</v>
+        <v>19.609245000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.290000</v>
+        <v>1272.29</v>
       </c>
       <c r="I23" s="1">
-        <v>-259.839000</v>
+        <v>-259.839</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>70603.452662</v>
+        <v>70603.452661999996</v>
       </c>
       <c r="L23" s="1">
-        <v>19.612070</v>
+        <v>19.612069999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.240000</v>
+        <v>1307.24</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.100000</v>
+        <v>-201.1</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>70614.017944</v>
+        <v>70614.017944000007</v>
       </c>
       <c r="Q23" s="1">
         <v>19.615005</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.630000</v>
+        <v>1319.63</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.770000</v>
+        <v>-183.77</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>70624.519739</v>
+        <v>70624.519738999996</v>
       </c>
       <c r="V23" s="1">
         <v>19.617922</v>
       </c>
       <c r="W23" s="1">
-        <v>1333.260000</v>
+        <v>1333.26</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.129000</v>
+        <v>-171.12899999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>70635.005197</v>
+        <v>70635.005197000006</v>
       </c>
       <c r="AA23" s="1">
         <v>19.620835</v>
       </c>
       <c r="AB23" s="1">
-        <v>1351.330000</v>
+        <v>1351.33</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.916000</v>
+        <v>-169.916</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>70645.488607</v>
+        <v>70645.488607000007</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.623747</v>
+        <v>19.623747000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1364.710000</v>
+        <v>1364.71</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.666000</v>
+        <v>-179.666</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>70656.037060</v>
+        <v>70656.037060000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.626677</v>
+        <v>19.626677000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1386.250000</v>
+        <v>1386.25</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.671000</v>
+        <v>-209.67099999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>70666.995666</v>
+        <v>70666.995666000003</v>
       </c>
       <c r="AP23" s="1">
         <v>19.629721</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1408.580000</v>
+        <v>1408.58</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.179000</v>
+        <v>-253.179</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>70678.029636</v>
+        <v>70678.029636000007</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.632786</v>
+        <v>19.632785999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.592000</v>
+        <v>-312.59199999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>70689.016022</v>
+        <v>70689.016021999996</v>
       </c>
       <c r="AZ23" s="1">
         <v>19.635838</v>
       </c>
       <c r="BA23" s="1">
-        <v>1453.590000</v>
+        <v>1453.59</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.190000</v>
+        <v>-364.19</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>70700.040104</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.638900</v>
+        <v>19.6389</v>
       </c>
       <c r="BF23" s="1">
-        <v>1540.160000</v>
+        <v>1540.16</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.698000</v>
+        <v>-609.69799999999998</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>70711.535915</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.642093</v>
+        <v>19.642092999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1696.390000</v>
+        <v>1696.39</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1048.860000</v>
+        <v>-1048.8599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>70722.564949</v>
+        <v>70722.564949000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.645157</v>
+        <v>19.645157000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1993.270000</v>
+        <v>1993.27</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1806.580000</v>
+        <v>-1806.58</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>70733.226427</v>
+        <v>70733.226427000001</v>
       </c>
       <c r="BT23" s="1">
         <v>19.648118</v>
       </c>
       <c r="BU23" s="1">
-        <v>2379.130000</v>
+        <v>2379.13</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2677.150000</v>
+        <v>-2677.15</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>70744.360125</v>
+        <v>70744.360125000007</v>
       </c>
       <c r="BY23" s="1">
         <v>19.651211</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2864.230000</v>
+        <v>2864.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3625.000000</v>
+        <v>-3625</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>70757.678699</v>
+        <v>70757.678698999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.654911</v>
+        <v>19.654910999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4256.940000</v>
+        <v>4256.9399999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5890.820000</v>
+        <v>-5890.82</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>70583.492160</v>
+        <v>70583.492159999994</v>
       </c>
       <c r="B24" s="1">
-        <v>19.606526</v>
+        <v>19.606525999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.880000</v>
+        <v>1247.8800000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-300.239000</v>
+        <v>-300.23899999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>70593.628932</v>
+        <v>70593.628932000007</v>
       </c>
       <c r="G24" s="1">
-        <v>19.609341</v>
+        <v>19.609341000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.080000</v>
+        <v>1272.08</v>
       </c>
       <c r="I24" s="1">
-        <v>-260.237000</v>
+        <v>-260.23700000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>70603.871286</v>
+        <v>70603.871285999994</v>
       </c>
       <c r="L24" s="1">
-        <v>19.612186</v>
+        <v>19.612186000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.160000</v>
+        <v>1307.1600000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.618000</v>
+        <v>-200.61799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>70614.439552</v>
+        <v>70614.439551999996</v>
       </c>
       <c r="Q24" s="1">
         <v>19.615122</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.590000</v>
+        <v>1319.59</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.825000</v>
+        <v>-183.82499999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>70624.810922</v>
+        <v>70624.810922000004</v>
       </c>
       <c r="V24" s="1">
-        <v>19.618003</v>
+        <v>19.618003000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1333.270000</v>
+        <v>1333.27</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.265000</v>
+        <v>-171.26499999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>70635.352605</v>
+        <v>70635.352604999993</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.620931</v>
+        <v>19.620930999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1351.170000</v>
+        <v>1351.17</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.863000</v>
+        <v>-169.863</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>70645.831840</v>
+        <v>70645.831839999999</v>
       </c>
       <c r="AF24" s="1">
         <v>19.623842</v>
       </c>
       <c r="AG24" s="1">
-        <v>1364.520000</v>
+        <v>1364.52</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.996000</v>
+        <v>-179.99600000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>70656.387200</v>
+        <v>70656.387199999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.626774</v>
+        <v>19.626774000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1386.240000</v>
+        <v>1386.24</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.636000</v>
+        <v>-209.636</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>70667.356722</v>
+        <v>70667.356721999997</v>
       </c>
       <c r="AP24" s="1">
         <v>19.629821</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1408.600000</v>
+        <v>1408.6</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.163000</v>
+        <v>-253.16300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>70678.767684</v>
+        <v>70678.767684000006</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.632991</v>
+        <v>19.632991000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1433.840000</v>
+        <v>1433.84</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.587000</v>
+        <v>-312.58699999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>70689.393508</v>
+        <v>70689.393507999994</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.635943</v>
+        <v>19.635943000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1453.540000</v>
+        <v>1453.54</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.159000</v>
+        <v>-364.15899999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>70700.403672</v>
@@ -6300,604 +6716,605 @@
         <v>19.639001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1540.250000</v>
+        <v>1540.25</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.697000</v>
+        <v>-609.697</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>70711.910390</v>
+        <v>70711.910390000005</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.642197</v>
+        <v>19.642196999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1696.470000</v>
+        <v>1696.47</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1048.730000</v>
+        <v>-1048.73</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>70723.294762</v>
+        <v>70723.294762000005</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.645360</v>
+        <v>19.64536</v>
       </c>
       <c r="BP24" s="1">
-        <v>1993.250000</v>
+        <v>1993.25</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1806.420000</v>
+        <v>-1806.42</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>70733.967450</v>
+        <v>70733.967449999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.648324</v>
+        <v>19.648323999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2379.410000</v>
+        <v>2379.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2678.280000</v>
+        <v>-2678.28</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>70744.534717</v>
+        <v>70744.534717000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.651260</v>
+        <v>19.651260000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2863.990000</v>
+        <v>2863.99</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3624.900000</v>
+        <v>-3624.9</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>70758.281339</v>
+        <v>70758.281338999994</v>
       </c>
       <c r="CD24" s="1">
         <v>19.655078</v>
       </c>
       <c r="CE24" s="1">
-        <v>4276.480000</v>
+        <v>4276.4799999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5891.920000</v>
+        <v>-5891.92</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>70583.914752</v>
+        <v>70583.914751999997</v>
       </c>
       <c r="B25" s="1">
-        <v>19.606643</v>
+        <v>19.606642999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.070000</v>
+        <v>1248.07</v>
       </c>
       <c r="D25" s="1">
-        <v>-300.384000</v>
+        <v>-300.38400000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>70594.048019</v>
+        <v>70594.048018999994</v>
       </c>
       <c r="G25" s="1">
         <v>19.609458</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.260000</v>
+        <v>1273.26</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.221000</v>
+        <v>-260.221</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>70604.165445</v>
+        <v>70604.165445000006</v>
       </c>
       <c r="L25" s="1">
         <v>19.612268</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.580000</v>
+        <v>1307.58</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.115000</v>
+        <v>-201.11500000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>70614.731688</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.615203</v>
+        <v>19.615203000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.500000</v>
+        <v>1319.5</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.857000</v>
+        <v>-183.857</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>70625.157595</v>
+        <v>70625.157594999997</v>
       </c>
       <c r="V25" s="1">
-        <v>19.618099</v>
+        <v>19.618099000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1333.350000</v>
+        <v>1333.35</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.177000</v>
+        <v>-171.17699999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>70635.702045</v>
+        <v>70635.702044999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.621028</v>
+        <v>19.621027999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1351.350000</v>
+        <v>1351.35</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.741000</v>
+        <v>-169.74100000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>70646.177055</v>
+        <v>70646.177054999993</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.623938</v>
+        <v>19.623937999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1364.900000</v>
+        <v>1364.9</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.929000</v>
+        <v>-179.929</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>70657.081105</v>
+        <v>70657.081105000005</v>
       </c>
       <c r="AK25" s="1">
         <v>19.626967</v>
       </c>
       <c r="AL25" s="1">
-        <v>1386.250000</v>
+        <v>1386.25</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.642000</v>
+        <v>-209.642</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>70668.076417</v>
+        <v>70668.076417000004</v>
       </c>
       <c r="AP25" s="1">
-        <v>19.630021</v>
+        <v>19.630020999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1408.580000</v>
+        <v>1408.58</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.164000</v>
+        <v>-253.16399999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>70679.155095</v>
+        <v>70679.155094999995</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.633099</v>
+        <v>19.633099000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1433.820000</v>
+        <v>1433.82</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.574000</v>
+        <v>-312.57400000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>70689.761042</v>
+        <v>70689.761041999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.636045</v>
+        <v>19.636044999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1453.570000</v>
+        <v>1453.57</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.162000</v>
+        <v>-364.16199999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>70700.764790</v>
+        <v>70700.764790000001</v>
       </c>
       <c r="BE25" s="1">
         <v>19.639101</v>
       </c>
       <c r="BF25" s="1">
-        <v>1540.250000</v>
+        <v>1540.25</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.700000</v>
+        <v>-609.70000000000005</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>70712.609720</v>
+        <v>70712.609719999993</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.642392</v>
+        <v>19.642392000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1696.480000</v>
+        <v>1696.48</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1048.800000</v>
+        <v>-1048.8</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>70723.410103</v>
+        <v>70723.410103000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.645392</v>
+        <v>19.645392000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1993.230000</v>
+        <v>1993.23</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1806.550000</v>
+        <v>-1806.55</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>70734.084506</v>
+        <v>70734.084505999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.648357</v>
+        <v>19.648357000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2379.910000</v>
+        <v>2379.91</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2679.380000</v>
+        <v>-2679.38</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>70744.958833</v>
+        <v>70744.958832999997</v>
       </c>
       <c r="BY25" s="1">
         <v>19.651377</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2864.520000</v>
+        <v>2864.52</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3625.160000</v>
+        <v>-3625.16</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>70758.814042</v>
+        <v>70758.814041999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.655226</v>
+        <v>19.655225999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4259.100000</v>
+        <v>4259.1000000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5888.830000</v>
+        <v>-5888.83</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>70584.190377</v>
+        <v>70584.190377000006</v>
       </c>
       <c r="B26" s="1">
-        <v>19.606720</v>
+        <v>19.606719999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.030000</v>
+        <v>1248.03</v>
       </c>
       <c r="D26" s="1">
-        <v>-300.183000</v>
+        <v>-300.18299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>70594.321812</v>
+        <v>70594.321811999995</v>
       </c>
       <c r="G26" s="1">
         <v>19.609534</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.170000</v>
+        <v>1272.17</v>
       </c>
       <c r="I26" s="1">
-        <v>-259.986000</v>
+        <v>-259.98599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>70604.509638</v>
+        <v>70604.509638000003</v>
       </c>
       <c r="L26" s="1">
-        <v>19.612364</v>
+        <v>19.612363999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.700000</v>
+        <v>1307.7</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.226000</v>
+        <v>-201.226</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>70615.077400</v>
+        <v>70615.077399999995</v>
       </c>
       <c r="Q26" s="1">
         <v>19.615299</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.520000</v>
+        <v>1319.52</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.785000</v>
+        <v>-183.785</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>70625.499338</v>
+        <v>70625.499337999994</v>
       </c>
       <c r="V26" s="1">
-        <v>19.618194</v>
+        <v>19.618193999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1333.060000</v>
+        <v>1333.06</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.207000</v>
+        <v>-171.20699999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>70636.396475</v>
+        <v>70636.396475000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.621221</v>
+        <v>19.621220999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1351.290000</v>
+        <v>1351.29</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.673000</v>
+        <v>-169.673</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>70646.863050</v>
+        <v>70646.86305</v>
       </c>
       <c r="AF26" s="1">
         <v>19.624129</v>
       </c>
       <c r="AG26" s="1">
-        <v>1364.740000</v>
+        <v>1364.74</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.810000</v>
+        <v>-179.81</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>70657.428799</v>
+        <v>70657.428799000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.627064</v>
+        <v>19.627064000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1386.220000</v>
+        <v>1386.22</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.655000</v>
+        <v>-209.655</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>70668.438497</v>
+        <v>70668.438496999996</v>
       </c>
       <c r="AP26" s="1">
         <v>19.630122</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.194000</v>
+        <v>-253.19399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>70679.519123</v>
+        <v>70679.519123000005</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.633200</v>
+        <v>19.633199999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.558000</v>
+        <v>-312.55799999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>70690.441523</v>
+        <v>70690.441523000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.636234</v>
+        <v>19.636234000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1453.570000</v>
+        <v>1453.57</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.158000</v>
+        <v>-364.15800000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>70701.441338</v>
+        <v>70701.441338000004</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.639289</v>
+        <v>19.639289000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1540.210000</v>
+        <v>1540.21</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.701000</v>
+        <v>-609.70100000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>70713.065541</v>
+        <v>70713.065541000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.642518</v>
+        <v>19.642517999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1696.440000</v>
+        <v>1696.44</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1048.750000</v>
+        <v>-1048.75</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>70723.804921</v>
+        <v>70723.804921000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.645501</v>
+        <v>19.645500999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1993.330000</v>
+        <v>1993.33</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1806.540000</v>
+        <v>-1806.54</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>70734.521513</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.648478</v>
+        <v>19.648478000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2381.150000</v>
+        <v>2381.15</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2679.760000</v>
+        <v>-2679.76</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>70745.406218</v>
+        <v>70745.406218000004</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.651502</v>
+        <v>19.651502000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2862.890000</v>
+        <v>2862.89</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3625.020000</v>
+        <v>-3625.02</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>70759.330904</v>
+        <v>70759.330904000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.655370</v>
+        <v>19.655370000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4260.440000</v>
+        <v>4260.4399999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5906.020000</v>
+        <v>-5906.02</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>